--- a/季诚/成交客户/周肖强/标签.xlsx
+++ b/季诚/成交客户/周肖强/标签.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
-    <sheet name="0603红光" sheetId="1" r:id="rId1"/>
+    <sheet name="0603红光4K" sheetId="1" r:id="rId1"/>
+    <sheet name="0603红光8K" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>名称：</t>
   </si>
@@ -31,13 +32,13 @@
     <t>光强：</t>
   </si>
   <si>
-    <t>43-47mcd</t>
+    <t>39-43mcd</t>
   </si>
   <si>
     <t>电压：</t>
   </si>
   <si>
-    <t>2.0-2.1V</t>
+    <t>1.9-2.0V</t>
   </si>
   <si>
     <t>数量：</t>
@@ -48,16 +49,19 @@
   <si>
     <t>备注：</t>
   </si>
+  <si>
+    <t>8000pcs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -73,6 +77,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,6 +110,68 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,15 +183,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,114 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +236,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +302,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,67 +350,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,85 +386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +427,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +480,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,212 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1011,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1064,6 +1068,76 @@
     </row>
   </sheetData>
   <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
+  <pageSetup paperSize="260" scale="60" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.79166666666667" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="22.7916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="22.2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="22.2" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="22.2" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="22.2" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="22.2" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.16" right="0.16" top="0.236111111111111" bottom="0.04" header="0.156944444444444" footer="0.11"/>
   <pageSetup paperSize="260" scale="59" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
